--- a/data/trans_orig/iP30B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{258DACCC-9645-4E7C-9FF1-95E2B8E7BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DAE8070-ABFA-4B11-8392-D49B628227E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC8507CF-8DFE-4C40-970D-A4AA4782858A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71026B04-8517-4FA4-B5B8-61614DF3BBE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,43 +101,43 @@
     <t>96,25%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>87,32%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>91,61%</t>
+    <t>91,48%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,68%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>8,39%</t>
+    <t>8,52%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -146,7 +146,7 @@
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -155,19 +155,19 @@
     <t>96,75%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>0,6%</t>
@@ -176,25 +176,25 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,53%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -203,22 +203,22 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>96,93%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -227,16 +227,16 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>1,51%</t>
@@ -245,55 +245,55 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7972B8-FE97-4B69-91B2-36D4639D1677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09491DA4-AF96-4F58-AAEB-DE762FF14394}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -978,7 +978,7 @@
         <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>53433</v>
+        <v>53432</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -1080,7 +1080,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>

--- a/data/trans_orig/iP30B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DAE8070-ABFA-4B11-8392-D49B628227E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5194410F-AA19-4A7A-A476-96024AEF3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71026B04-8517-4FA4-B5B8-61614DF3BBE2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ADFA0E5B-1D66-4139-9850-6D830102C031}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Menores según si desayunan todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,235 +65,226 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -708,8 +699,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09491DA4-AF96-4F58-AAEB-DE762FF14394}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9947E4-00F0-4B1E-AE75-F2A139ED1DB5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -826,96 +817,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D4" s="7">
+        <v>52494</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>56251</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>108744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1205</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2094</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3299</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -924,151 +919,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>606</v>
       </c>
       <c r="D7" s="7">
-        <v>53432</v>
+        <v>437736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>625</v>
       </c>
       <c r="I7" s="7">
-        <v>48928</v>
+        <v>502313</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>140</v>
+        <v>1231</v>
       </c>
       <c r="N7" s="7">
-        <v>102360</v>
+        <v>940049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>2081</v>
+        <v>14096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1226</v>
+        <v>2937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>3307</v>
+        <v>17033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,153 +1074,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>625</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7">
-        <v>478420</v>
+        <v>143039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>606</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>426917</v>
+        <v>179439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>1231</v>
+        <v>447</v>
       </c>
       <c r="N10" s="7">
-        <v>905336</v>
+        <v>322477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>2906</v>
+        <v>3147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>14337</v>
+        <v>1700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>17244</v>
+        <v>4847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,153 +1229,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>887</v>
       </c>
       <c r="D13" s="7">
-        <v>170883</v>
+        <v>633268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>216</v>
+        <v>931</v>
       </c>
       <c r="I13" s="7">
-        <v>144792</v>
+        <v>738002</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>447</v>
+        <v>1818</v>
       </c>
       <c r="N13" s="7">
-        <v>315675</v>
+        <v>1371270</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>1611</v>
+        <v>18449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>3238</v>
+        <v>6731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>4849</v>
+        <v>25180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,216 +1384,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>931</v>
-      </c>
-      <c r="D16" s="7">
-        <v>702734</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7">
-        <v>888</v>
-      </c>
-      <c r="I16" s="7">
-        <v>621808</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1819</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1324542</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6599</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18801</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="7">
-        <v>36</v>
-      </c>
-      <c r="N17" s="7">
-        <v>25400</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
